--- a/first-idea.xlsx
+++ b/first-idea.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1ED3E2-DD7E-4E2B-BFA2-44EE6B4ED9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF480EC-6951-4733-A41E-F3E8D85508C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="0" windowWidth="20790" windowHeight="15370" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="770" windowWidth="20790" windowHeight="13940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first-idea" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="135">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PS、AI、MG Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据结构与算法Python语言描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,6 +553,26 @@
   </si>
   <si>
     <t>fsd+ai+cd+e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS、AI、MG、UI Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程框架基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactJS、NextJS、TailWind CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Django</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +990,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1453,6 +1469,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1465,17 +1492,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,6 +1993,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -1990,18 +2018,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2011,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2063,40 +2079,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2200,7 +2252,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>43</v>
@@ -2212,7 +2264,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>43</v>
@@ -2224,7 +2276,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>43</v>
@@ -2391,7 +2443,7 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>43</v>
@@ -2513,7 +2565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB24B1-9F30-3445-B4D0-C244BD42E129}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/first-idea.xlsx
+++ b/first-idea.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF480EC-6951-4733-A41E-F3E8D85508C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C3487-2183-4006-A334-CE5ACE61E327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="770" windowWidth="20790" windowHeight="13940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first-idea" sheetId="4" r:id="rId1"/>
@@ -456,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平面设计中的网格系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +569,10 @@
   </si>
   <si>
     <t>Django</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blender、Pr Video</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,13 +984,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1415,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
@@ -1435,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>5</v>
@@ -1469,17 +1469,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1492,6 +1481,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1579,7 +1579,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1993,18 +1993,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2018,6 +2006,18 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,7 +2030,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2043,22 +2043,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>
@@ -2070,7 +2070,7 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>43</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>43</v>
@@ -2096,7 +2096,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>43</v>
@@ -2108,7 +2108,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>43</v>
@@ -2122,7 +2122,7 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>43</v>
@@ -2134,13 +2134,13 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2174,19 +2174,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -2252,7 +2252,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>43</v>
@@ -2264,7 +2264,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>43</v>
@@ -2276,7 +2276,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>43</v>
@@ -2403,7 +2403,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>43</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
         <v>113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>43</v>
@@ -2443,7 +2443,7 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>43</v>
@@ -2515,14 +2515,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,22 +2578,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>

--- a/first-idea.xlsx
+++ b/first-idea.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C3487-2183-4006-A334-CE5ACE61E327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A856B3-A47F-40CC-9244-D82D707981CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,27 +969,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1469,6 +1465,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1481,17 +1488,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1993,6 +1989,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2006,18 +2014,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,7 +2026,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/first-idea.xlsx
+++ b/first-idea.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A856B3-A47F-40CC-9244-D82D707981CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7514ED5A-492A-4801-BC30-8244158712EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="1590" windowWidth="20790" windowHeight="13940" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first-idea" sheetId="4" r:id="rId1"/>
@@ -13,8 +13,7 @@
     <sheet name=" bachelor" sheetId="2" r:id="rId3"/>
     <sheet name="fsd" sheetId="6" r:id="rId4"/>
     <sheet name="ai" sheetId="7" r:id="rId5"/>
-    <sheet name="cd" sheetId="8" r:id="rId6"/>
-    <sheet name="e" sheetId="9" r:id="rId7"/>
+    <sheet name="e" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算法导论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大学语文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,66 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算机基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++Primer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构与算法分析C++描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率论与数理统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最优化方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++模版元编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++并发编程实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux程序设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unix环境高级编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unix网络编程卷1：套接字联网API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经网络与深度学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep Learning with PyTorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设计基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,30 +415,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编程语言基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JavaScript高级程序设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS权威指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马克思主义基本原理概论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,55 +435,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CircuitDesign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FullStackDevelopment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据结构与算法Python语言描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Cookbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴恩达+李宏毅 Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python for Data Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsd+ai+cd+e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS、AI、MG、UI Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编程框架基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReactJS、NextJS、TailWind CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flutter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Django</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blender、Pr Video</t>
+    <t>fsd+ai+e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript、TypeScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML、CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React、Vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4D、PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS、AI、MG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯坦福大学人工智能课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑马程序员人工智能课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +879,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -983,10 +890,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1001,14 +908,14 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1019,7 +926,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1094,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1185,9 +1092,7 @@
       <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
     </row>
@@ -1225,9 +1130,7 @@
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
     </row>
@@ -1269,9 +1172,7 @@
       <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
@@ -1385,9 +1286,7 @@
       <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1411,7 +1310,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
@@ -1431,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>5</v>
@@ -1465,17 +1364,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1488,6 +1376,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1499,14 +1398,14 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1517,7 +1416,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1551,19 +1450,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
     </row>
@@ -1572,10 +1469,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1591,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1612,10 +1509,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1633,19 +1530,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
     </row>
@@ -1654,10 +1549,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1671,10 +1566,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -1692,10 +1587,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -1709,10 +1604,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1730,10 +1625,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -1751,10 +1646,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -1770,10 +1665,10 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1791,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1810,10 +1705,10 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1831,10 +1726,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1850,10 +1745,10 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1871,10 +1766,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1889,10 +1784,10 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1909,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -1929,10 +1824,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1989,18 +1884,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2014,6 +1897,18 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2039,22 +1934,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>
@@ -2066,76 +1961,64 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="13" t="s">
-        <v>133</v>
+      <c r="A6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2143,8 +2026,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2154,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2170,22 +2053,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>
@@ -2197,7 +2080,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>43</v>
@@ -2206,287 +2089,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2494,75 +2108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB24B1-9F30-3445-B4D0-C244BD42E129}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2574,22 +2124,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>

--- a/first-idea.xlsx
+++ b/first-idea.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7514ED5A-492A-4801-BC30-8244158712EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49193D1-0B6F-4811-96AE-627A9ED6716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1590" windowWidth="20790" windowHeight="13940" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first-idea" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,14 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,10 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新概念英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>语法基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,22 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JavaScript、TypeScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML、CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React、Vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C4D、PR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,11 +447,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斯坦福大学人工智能课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑马程序员人工智能课程</t>
+    <t>Pets3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能数学基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML、CSS、JavaScript、TypeScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React、Vue、Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,10 +890,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1008,9 +1008,7 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
@@ -1109,9 +1107,7 @@
       <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
     </row>
@@ -1130,7 +1126,9 @@
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
     </row>
@@ -1147,9 +1145,7 @@
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
@@ -1172,7 +1168,9 @@
       <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
@@ -1189,9 +1187,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
     </row>
@@ -1265,9 +1261,7 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
@@ -1310,7 +1304,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
@@ -1320,9 +1314,7 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1330,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>5</v>
@@ -1398,7 +1390,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1464,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1656,9 +1648,7 @@
       <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
@@ -1696,9 +1686,7 @@
       <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
     </row>
@@ -1736,9 +1724,7 @@
       <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
@@ -1918,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1934,100 +1920,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="15">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="A4" s="19"/>
       <c r="B4" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" t="s">
-        <v>106</v>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4">
-        <v>2</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2040,7 +2026,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2051,49 +2037,40 @@
     <col min="4" max="4" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
@@ -2111,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB24B1-9F30-3445-B4D0-C244BD42E129}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2124,29 +2101,25 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>

--- a/first-idea.xlsx
+++ b/first-idea.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49193D1-0B6F-4811-96AE-627A9ED6716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35D134-82B0-42CF-98B5-2E2534EC1049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first-idea" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +480,18 @@
   </si>
   <si>
     <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能与大数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -583,6 +595,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -907,33 +922,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -942,11 +957,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -962,11 +977,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -981,11 +996,11 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1000,11 +1015,11 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1025,11 +1040,11 @@
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1044,11 +1059,11 @@
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1063,11 +1078,11 @@
       <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1082,11 +1097,11 @@
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1099,11 +1114,11 @@
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1118,17 +1133,15 @@
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
     </row>
@@ -1137,11 +1150,11 @@
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1160,17 +1173,15 @@
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
@@ -1179,11 +1190,11 @@
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1198,11 +1209,11 @@
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1217,11 +1228,11 @@
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1236,11 +1247,11 @@
       <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1253,11 +1264,11 @@
       <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1272,11 +1283,11 @@
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1290,11 +1301,11 @@
       <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1306,11 +1317,11 @@
       <c r="B22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1324,17 +1335,15 @@
       <c r="B23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1349,13 +1358,22 @@
         <f>SUM(F4:F23)</f>
         <v>68</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1368,17 +1386,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1387,35 +1394,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1424,11 +1431,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1444,11 +1451,11 @@
       <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1463,11 +1470,11 @@
       <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1482,11 +1489,11 @@
       <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="4">
         <v>14</v>
       </c>
@@ -1503,17 +1510,15 @@
       <c r="B7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
     </row>
@@ -1524,11 +1529,11 @@
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
@@ -1543,11 +1548,11 @@
       <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1560,11 +1565,11 @@
       <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4">
         <v>2</v>
       </c>
@@ -1581,11 +1586,11 @@
       <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="4">
         <v>4</v>
       </c>
@@ -1598,11 +1603,11 @@
       <c r="B12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1619,11 +1624,11 @@
       <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="4">
         <v>4</v>
       </c>
@@ -1640,11 +1645,11 @@
       <c r="B14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="4">
         <v>4</v>
       </c>
@@ -1657,11 +1662,11 @@
       <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1678,11 +1683,11 @@
       <c r="B16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="4">
         <v>3</v>
       </c>
@@ -1695,11 +1700,11 @@
       <c r="B17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="4">
         <v>2</v>
       </c>
@@ -1716,11 +1721,11 @@
       <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="4">
         <v>3</v>
       </c>
@@ -1729,17 +1734,19 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="8">
+        <v>12</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+        <v>113</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>43</v>
@@ -1748,57 +1755,56 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>12</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5" t="s">
+      <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="4">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="4">
         <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4">
-        <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>43</v>
@@ -1807,82 +1813,94 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>14</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="4">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="G24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="4">
-        <v>64</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="4"/>
       <c r="H27" s="4"/>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C21:E21"/>
+  <mergeCells count="26">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
@@ -1895,6 +1913,20 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,16 +1951,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1939,7 +1971,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="13" t="s">
         <v>108</v>
       </c>
@@ -1948,7 +1980,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -1958,7 +1990,7 @@
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1970,7 +2002,7 @@
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="13" t="s">
         <v>110</v>
       </c>
@@ -1980,7 +2012,7 @@
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>111</v>
       </c>
@@ -1989,7 +2021,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B8" t="s">
@@ -2000,7 +2032,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>100</v>
       </c>
@@ -2038,16 +2070,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B2" t="s">
@@ -2058,7 +2090,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>105</v>
       </c>
@@ -2100,10 +2132,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>

--- a/first-idea.xlsx
+++ b/first-idea.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35D134-82B0-42CF-98B5-2E2534EC1049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0791E4D1-C76E-4049-B520-E50C289ADE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first-idea" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1363,17 +1363,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1386,6 +1375,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1722,14 +1722,16 @@
         <v>76</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
@@ -1741,16 +1743,14 @@
         <v>113</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="4">
         <v>6</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
@@ -1788,9 +1788,7 @@
       <c r="F21" s="4">
         <v>3</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1901,18 +1899,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -1927,6 +1913,18 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
